--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/153.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/153.xlsx
@@ -479,13 +479,13 @@
         <v>0.07945252585313146</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.008210607752201</v>
+        <v>-1.778894122998586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02561491431064697</v>
+        <v>0.05519230761900819</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1723337303841275</v>
+        <v>-0.167378718190273</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09771134836491047</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.8253568064307</v>
+        <v>-1.735610171181938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05404327366045869</v>
+        <v>0.05885190207603229</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1383191771728197</v>
+        <v>-0.1640229094236599</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1049342461238112</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.948441953678171</v>
+        <v>-1.851609871354874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1066580108281768</v>
+        <v>0.08417157366127516</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1137455906510733</v>
+        <v>-0.1556396835836124</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.09174245002097203</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.0382932611985</v>
+        <v>-1.971346292921778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1839754040855879</v>
+        <v>0.1362920688249048</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1650113934318367</v>
+        <v>-0.1814897996127336</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06021608583287039</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.04032689390322</v>
+        <v>-1.945866071386163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3114284543946685</v>
+        <v>0.2013415570508983</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1885052028363708</v>
+        <v>-0.206592256559237</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01799547026867584</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.926855068439093</v>
+        <v>-1.843724035557158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4433879214480329</v>
+        <v>0.3124594369191204</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2221325473438387</v>
+        <v>-0.2259825981145402</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02159492628699072</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.500923920196006</v>
+        <v>-1.54068206918094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.669900291137051</v>
+        <v>0.4550451070603858</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2283011282802161</v>
+        <v>-0.2183848078160218</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04651506399447738</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7933787148845269</v>
+        <v>-1.061971698771958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7414756626399571</v>
+        <v>0.5507863941326214</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1592992780406365</v>
+        <v>-0.1677045401483822</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04562855937843581</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007198890591428921</v>
+        <v>-0.4906271550361887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7733558459227813</v>
+        <v>0.5610489988035019</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08184022306230838</v>
+        <v>-0.1200479632127613</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.00936736188286111</v>
       </c>
       <c r="E11" t="n">
-        <v>1.06882284527774</v>
+        <v>0.2243033479924328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8324760041188352</v>
+        <v>0.548093247416076</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06013944971725625</v>
+        <v>-0.004549588129959412</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06418858234600901</v>
       </c>
       <c r="E12" t="n">
-        <v>2.259129159206867</v>
+        <v>0.9931203956387833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7612327506505234</v>
+        <v>0.4749045063138366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2068773823005129</v>
+        <v>0.1044260517141724</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1732544849890907</v>
       </c>
       <c r="E13" t="n">
-        <v>3.55692681294874</v>
+        <v>1.874769429976452</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7094963161524911</v>
+        <v>0.3737989620762082</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4678686408416225</v>
+        <v>0.2834014699207884</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.311671619735703</v>
       </c>
       <c r="E14" t="n">
-        <v>4.799555096489024</v>
+        <v>2.753530139226535</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5419750350915802</v>
+        <v>0.1635776902926523</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7146669689659638</v>
+        <v>0.476393528402587</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4748177962944849</v>
       </c>
       <c r="E15" t="n">
-        <v>5.931950098907256</v>
+        <v>3.608667969504136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2860662842931505</v>
+        <v>-0.08525584455553088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9495893228200916</v>
+        <v>0.6434347336315013</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.659569029711698</v>
       </c>
       <c r="E16" t="n">
-        <v>6.949251249156861</v>
+        <v>4.39343927496399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03906333368304005</v>
+        <v>-0.3759913424318596</v>
       </c>
       <c r="G16" t="n">
-        <v>1.205380022184424</v>
+        <v>0.8450996374716666</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8631685601681105</v>
       </c>
       <c r="E17" t="n">
-        <v>7.957223188074517</v>
+        <v>5.18204016894597</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3370800157341853</v>
+        <v>-0.7490102638933032</v>
       </c>
       <c r="G17" t="n">
-        <v>1.475207824072515</v>
+        <v>1.071805611512605</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.079218831419389</v>
       </c>
       <c r="E18" t="n">
-        <v>8.631924910400935</v>
+        <v>5.766434118206882</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5985230177631082</v>
+        <v>-1.061849712290057</v>
       </c>
       <c r="G18" t="n">
-        <v>1.811065728099171</v>
+        <v>1.300417722709438</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.292000123513966</v>
       </c>
       <c r="E19" t="n">
-        <v>9.237454788422674</v>
+        <v>6.29353377145245</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8817960909853504</v>
+        <v>-1.362994985625108</v>
       </c>
       <c r="G19" t="n">
-        <v>2.027578354310566</v>
+        <v>1.519085181097893</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.487682242631908</v>
       </c>
       <c r="E20" t="n">
-        <v>9.554114381226825</v>
+        <v>6.651665620064632</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.200750603668358</v>
+        <v>-1.689537057482346</v>
       </c>
       <c r="G20" t="n">
-        <v>2.247374384408994</v>
+        <v>1.69460090527589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.653774287350399</v>
       </c>
       <c r="E21" t="n">
-        <v>9.971548974253132</v>
+        <v>7.027349355898437</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.491122503127666</v>
+        <v>-2.014413817109247</v>
       </c>
       <c r="G21" t="n">
-        <v>2.415934518089963</v>
+        <v>1.863696205458102</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.785337344483314</v>
       </c>
       <c r="E22" t="n">
-        <v>10.19779848274889</v>
+        <v>7.270381056265506</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.825285188560681</v>
+        <v>-2.322421813813169</v>
       </c>
       <c r="G22" t="n">
-        <v>2.561148800163801</v>
+        <v>1.98409135402727</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.8822933922229</v>
       </c>
       <c r="E23" t="n">
-        <v>10.3521216134777</v>
+        <v>7.444445534813664</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.023458917989801</v>
+        <v>-2.50048430092943</v>
       </c>
       <c r="G23" t="n">
-        <v>2.601394895076338</v>
+        <v>2.067265672435041</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.945589718985881</v>
       </c>
       <c r="E24" t="n">
-        <v>10.18261077224746</v>
+        <v>7.422461209746457</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.347964996113636</v>
+        <v>-2.746840329680686</v>
       </c>
       <c r="G24" t="n">
-        <v>2.702108508552763</v>
+        <v>2.142928771595965</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.97881899143588</v>
       </c>
       <c r="E25" t="n">
-        <v>10.09362517524385</v>
+        <v>7.435849816392241</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.561734894006165</v>
+        <v>-2.915727859338886</v>
       </c>
       <c r="G25" t="n">
-        <v>2.70934270043426</v>
+        <v>2.188052751765413</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.984121271527658</v>
       </c>
       <c r="E26" t="n">
-        <v>9.773054144923265</v>
+        <v>7.296660879514742</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.80317683506072</v>
+        <v>-3.08614533558299</v>
       </c>
       <c r="G26" t="n">
-        <v>2.749573055155585</v>
+        <v>2.227181293101827</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.966019720895276</v>
       </c>
       <c r="E27" t="n">
-        <v>9.630230797894683</v>
+        <v>7.220961577914029</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.992276344255542</v>
+        <v>-3.167687396161972</v>
       </c>
       <c r="G27" t="n">
-        <v>2.738142528296699</v>
+        <v>2.25139915130216</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.928466192574857</v>
       </c>
       <c r="E28" t="n">
-        <v>9.276693511097578</v>
+        <v>6.991357834670776</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.040927701275825</v>
+        <v>-3.204489537237104</v>
       </c>
       <c r="G28" t="n">
-        <v>2.783655291189108</v>
+        <v>2.272947473072766</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.874349834244106</v>
       </c>
       <c r="E29" t="n">
-        <v>8.882548104990038</v>
+        <v>6.773500996129791</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.087547786620069</v>
+        <v>-3.218118181798886</v>
       </c>
       <c r="G29" t="n">
-        <v>2.714318174876692</v>
+        <v>2.212461066279423</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.805009570493916</v>
       </c>
       <c r="E30" t="n">
-        <v>8.365186908047956</v>
+        <v>6.453388005373506</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.09499053603514</v>
+        <v>-3.190409149187508</v>
       </c>
       <c r="G30" t="n">
-        <v>2.670716271197541</v>
+        <v>2.177127485044466</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.720494632994612</v>
       </c>
       <c r="E31" t="n">
-        <v>7.77258287505034</v>
+        <v>6.099114077627632</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.992898081808456</v>
+        <v>-3.092479188527104</v>
       </c>
       <c r="G31" t="n">
-        <v>2.604313126527229</v>
+        <v>2.100700986609711</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.623423151470586</v>
       </c>
       <c r="E32" t="n">
-        <v>7.327895714957833</v>
+        <v>5.782674847500463</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.998210396342845</v>
+        <v>-3.05947358157255</v>
       </c>
       <c r="G32" t="n">
-        <v>2.470201975335047</v>
+        <v>1.99777745028698</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.519393407108408</v>
       </c>
       <c r="E33" t="n">
-        <v>6.859676969001882</v>
+        <v>5.460934320972753</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.925336459064866</v>
+        <v>-2.959958583656996</v>
       </c>
       <c r="G33" t="n">
-        <v>2.358720497049804</v>
+        <v>1.913317158257106</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.413912601228153</v>
       </c>
       <c r="E34" t="n">
-        <v>6.275991328345554</v>
+        <v>5.06880838139784</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.792190181594041</v>
+        <v>-2.853935016674864</v>
       </c>
       <c r="G34" t="n">
-        <v>2.228789940643797</v>
+        <v>1.803291647659067</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.312780229727371</v>
       </c>
       <c r="E35" t="n">
-        <v>5.719435481263965</v>
+        <v>4.669127150040684</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.798316264014143</v>
+        <v>-2.81507327157951</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02521102955213</v>
+        <v>1.640364928413233</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.21903747779273</v>
       </c>
       <c r="E36" t="n">
-        <v>5.175309663183287</v>
+        <v>4.268386603814894</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.695199910349053</v>
+        <v>-2.704858091677354</v>
       </c>
       <c r="G36" t="n">
-        <v>1.898955807794359</v>
+        <v>1.529651571459185</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.135147036950372</v>
       </c>
       <c r="E37" t="n">
-        <v>4.682810098262151</v>
+        <v>3.892262142627124</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.608558814826618</v>
+        <v>-2.61213183823197</v>
       </c>
       <c r="G37" t="n">
-        <v>1.721434783255825</v>
+        <v>1.393950660954489</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.062067004963734</v>
       </c>
       <c r="E38" t="n">
-        <v>4.200538509591228</v>
+        <v>3.532584607237825</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.577105977735227</v>
+        <v>-2.547870146576188</v>
       </c>
       <c r="G38" t="n">
-        <v>1.522316642353924</v>
+        <v>1.258410300400165</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.000118481947512</v>
       </c>
       <c r="E39" t="n">
-        <v>3.69535549859065</v>
+        <v>3.147056955819405</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.422392490264339</v>
+        <v>-2.431602863152631</v>
       </c>
       <c r="G39" t="n">
-        <v>1.354364080053776</v>
+        <v>1.125397814554651</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9493080820588641</v>
       </c>
       <c r="E40" t="n">
-        <v>3.169453673896392</v>
+        <v>2.79073680321584</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.315662975706304</v>
+        <v>-2.348450581012558</v>
       </c>
       <c r="G40" t="n">
-        <v>1.270185537446616</v>
+        <v>1.043391418334885</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9081411785165496</v>
       </c>
       <c r="E41" t="n">
-        <v>2.714281972436902</v>
+        <v>2.480096259531543</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.230458959641616</v>
+        <v>-2.261490746618059</v>
       </c>
       <c r="G41" t="n">
-        <v>1.098738652697181</v>
+        <v>0.9171645289212973</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.875763134601496</v>
       </c>
       <c r="E42" t="n">
-        <v>2.300755668888785</v>
+        <v>2.148401636080728</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.193888199377315</v>
+        <v>-2.19808138631646</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9278489707166864</v>
+        <v>0.8026703780378853</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8493409473386619</v>
       </c>
       <c r="E43" t="n">
-        <v>1.863999991148513</v>
+        <v>1.829554156697969</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.136015451334892</v>
+        <v>-2.118637493226172</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7826960753885795</v>
+        <v>0.6821083834418591</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8259273609801084</v>
       </c>
       <c r="E44" t="n">
-        <v>1.620815610926678</v>
+        <v>1.585386014525321</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.086632962432765</v>
+        <v>-2.054493853004487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7318473876749608</v>
+        <v>0.6133111556880487</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8019529017556337</v>
       </c>
       <c r="E45" t="n">
-        <v>1.216610648614904</v>
+        <v>1.297740316184105</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.028710632788021</v>
+        <v>-1.964977811556996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6225443518535985</v>
+        <v>0.5507643578649233</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.774146115016354</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9044795088227351</v>
+        <v>1.053976696925632</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.978518311047985</v>
+        <v>-1.900102252443906</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4692459075727606</v>
+        <v>0.4343357374814327</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7405788346226806</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5863356159871975</v>
+        <v>0.8331481102836306</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.931571616736071</v>
+        <v>-1.836565396593482</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4527139847417395</v>
+        <v>0.391841943263678</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6995078134557666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.42687803488471</v>
+        <v>0.6458193726002718</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.832092821260306</v>
+        <v>-1.741564685517819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3658344253224267</v>
+        <v>0.310018133261983</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6523349169827894</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2568273050958689</v>
+        <v>0.5187299207082117</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.785278344554581</v>
+        <v>-1.693189568853324</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2346997442886238</v>
+        <v>0.2206012550191336</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6004402547195203</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1294025871309717</v>
+        <v>0.3780283514551432</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.720497226588769</v>
+        <v>-1.617908169329315</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2032366760729444</v>
+        <v>0.1949746497052371</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5468176532476794</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.006762659014508179</v>
+        <v>0.2509042711424144</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.686472442253173</v>
+        <v>-1.565052607236038</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09190315558510413</v>
+        <v>0.1008593243853051</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4940315590357936</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1637159756950063</v>
+        <v>0.1131350995123291</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.615731300884556</v>
+        <v>-1.511199117019856</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04968324069445579</v>
+        <v>0.06615849883711009</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4441133076350148</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1654174903651323</v>
+        <v>0.06432161852255218</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.495661187263937</v>
+        <v>-1.421642938084772</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.05067779249879737</v>
+        <v>-0.0152686583460171</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3985153325034737</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2192332041224028</v>
+        <v>-0.02807802595516209</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.434911919277337</v>
+        <v>-1.370225242458803</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07414012152090542</v>
+        <v>-0.0509705600553593</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3580093637422029</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2152493617263908</v>
+        <v>-0.07910615184860909</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.3907937373264</v>
+        <v>-1.330582783879285</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1348547610868369</v>
+        <v>-0.1089180740060441</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3248416385185589</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2964781925002341</v>
+        <v>-0.1781953775918513</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.357581146857395</v>
+        <v>-1.304494203953286</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2160521114782541</v>
+        <v>-0.1704087049987768</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2995905243935291</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2506805321468693</v>
+        <v>-0.2365678767052873</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.323968755531579</v>
+        <v>-1.30088025605078</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2531123916892788</v>
+        <v>-0.2151423284261423</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2824008424612646</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.338251085960433</v>
+        <v>-0.3695740664743167</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.2983877967722</v>
+        <v>-1.281471813275582</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2802720916273222</v>
+        <v>-0.2523253821286285</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2722931254208248</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3460802570697826</v>
+        <v>-0.4234732032450162</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.30175226264398</v>
+        <v>-1.260617633937469</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3516318225106101</v>
+        <v>-0.2984299762106469</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2671138983812327</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4481963215832861</v>
+        <v>-0.5621741941949114</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.259847938587153</v>
+        <v>-1.23969498476758</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3637785280696876</v>
+        <v>-0.3385517236126014</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2656959487228686</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5157563703077542</v>
+        <v>-0.6375901723537913</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.28726656467065</v>
+        <v>-1.264129270597091</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4096722035894517</v>
+        <v>-0.3856196173968559</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2661301001182617</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.650575830104522</v>
+        <v>-0.7833112885846877</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.323673626946335</v>
+        <v>-1.289648055601178</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4408755586501166</v>
+        <v>-0.4025875435244773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2677893204064924</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7298654693209229</v>
+        <v>-0.8900549693148151</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.260153298296685</v>
+        <v>-1.261797361268884</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4304114795317096</v>
+        <v>-0.4336366447112547</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2696844696875835</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7590556539254441</v>
+        <v>-0.9801156213782766</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.255576837701504</v>
+        <v>-1.287209899982283</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5336671338890348</v>
+        <v>-0.5042282542633479</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2706701335394482</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8819621500026477</v>
+        <v>-1.075928526320531</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.319996718278977</v>
+        <v>-1.336218559343102</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5444019442963054</v>
+        <v>-0.5428106109646704</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.270782805555401</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9686103286111292</v>
+        <v>-1.1604549271535</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.3177742032797</v>
+        <v>-1.338698426468711</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5601122291460076</v>
+        <v>-0.5721629195386856</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2695568347528394</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9447112092828602</v>
+        <v>-1.20612666597716</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.319768485506388</v>
+        <v>-1.350081732753957</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5838657517055562</v>
+        <v>-0.5991085528762321</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2673363013380399</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.018582287674183</v>
+        <v>-1.283137125505918</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.266994772407419</v>
+        <v>-1.344912653959606</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6156074213057059</v>
+        <v>-0.6395104756817782</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2637053405264052</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9580683355462178</v>
+        <v>-1.269310154534852</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.296059822491797</v>
+        <v>-1.385935527308505</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6290353784295221</v>
+        <v>-0.6673800582435282</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2582871162581887</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9702189761530985</v>
+        <v>-1.272075706130977</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.262231790546363</v>
+        <v>-1.380116378617056</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7374365012943792</v>
+        <v>-0.7341798557324081</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2518118013776148</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9942337858867831</v>
+        <v>-1.279487762173182</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.211723877972506</v>
+        <v>-1.383659495659104</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6859188554542076</v>
+        <v>-0.70097592236857</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2446704012943859</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.03316085277567</v>
+        <v>-1.274288777015526</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.245777781661846</v>
+        <v>-1.43823231261372</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6774097080844561</v>
+        <v>-0.6983205521109358</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2378104929432689</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8707362456295311</v>
+        <v>-1.176047160569104</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.191647264080315</v>
+        <v>-1.411036410235887</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7387838616622125</v>
+        <v>-0.7367486549383707</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2327200285964499</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7051250367723186</v>
+        <v>-1.05048922928207</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.204472371880673</v>
+        <v>-1.461518351494243</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7580293934583561</v>
+        <v>-0.7470427399916773</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2309161752381653</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5981279389636618</v>
+        <v>-0.9783550809911018</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.075060454775134</v>
+        <v>-1.408277154716247</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7447730044187617</v>
+        <v>-0.7260579170664965</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2329273870165661</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.356975617427426</v>
+        <v>-0.7779297172089606</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.059542200258231</v>
+        <v>-1.415811197240353</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6858259883260509</v>
+        <v>-0.6888056065226731</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2387070892493167</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1754754725502437</v>
+        <v>-0.6252026418691549</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.002406093164576</v>
+        <v>-1.408107947660707</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6713623266204188</v>
+        <v>-0.6578210401198691</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2476168227607028</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005945971370873574</v>
+        <v>-0.4732515579561504</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9480961374032174</v>
+        <v>-1.364972740651023</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6293580523493887</v>
+        <v>-0.6198446807802473</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2586814188776548</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2322883469947912</v>
+        <v>-0.2818524068251081</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.7756395193874681</v>
+        <v>-1.301217883152299</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6038573685651963</v>
+        <v>-0.5670127289737897</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2703060923675033</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4462510622296789</v>
+        <v>-0.1044321195103372</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.721176883771343</v>
+        <v>-1.263645259717291</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5511466162310789</v>
+        <v>-0.5305474279906167</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2805395580196897</v>
       </c>
       <c r="E81" t="n">
-        <v>0.712830088651406</v>
+        <v>0.1192737740854018</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6622267196403897</v>
+        <v>-1.241414600657601</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4469213660950325</v>
+        <v>-0.4387081343200855</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2874452243492354</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9843420909992894</v>
+        <v>0.365662857238205</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5024637788283699</v>
+        <v>-1.163773746470762</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3766067839082882</v>
+        <v>-0.3698117433616331</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2906097575702682</v>
       </c>
       <c r="E83" t="n">
-        <v>1.233534502207129</v>
+        <v>0.5961543472658711</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4780271319701767</v>
+        <v>-1.111726443196273</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3011325670419202</v>
+        <v>-0.2936638463113485</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.290407487315292</v>
       </c>
       <c r="E84" t="n">
-        <v>1.450757011042231</v>
+        <v>0.8183365903521911</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3515153450956339</v>
+        <v>-1.043552527014498</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1968270419306875</v>
+        <v>-0.2281169680430239</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2874818660900586</v>
       </c>
       <c r="E85" t="n">
-        <v>1.723375548832388</v>
+        <v>1.078531395217923</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2728490174512682</v>
+        <v>-0.9731419296613539</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1948831283158812</v>
+        <v>-0.207587036643899</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2816368014905866</v>
       </c>
       <c r="E86" t="n">
-        <v>1.862518839155369</v>
+        <v>1.275968483698274</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.1658786779676734</v>
+        <v>-0.868136753050703</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1656630373480552</v>
+        <v>-0.1327062249862614</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2723932452902496</v>
       </c>
       <c r="E87" t="n">
-        <v>2.072204944437683</v>
+        <v>1.490458495338798</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.03971474931893808</v>
+        <v>-0.7436208224219696</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1070811936914862</v>
+        <v>-0.08582091742007783</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2574595879046997</v>
       </c>
       <c r="E88" t="n">
-        <v>2.295320580862934</v>
+        <v>1.691227782298943</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0847460906405499</v>
+        <v>-0.5932484796876296</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07267470971897448</v>
+        <v>-0.03719317068661437</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2359068804864709</v>
       </c>
       <c r="E89" t="n">
-        <v>2.411955397751315</v>
+        <v>1.833772527943055</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3022235905733021</v>
+        <v>-0.4260970931202244</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0162004776658271</v>
+        <v>-0.005525479985165838</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.205615180821112</v>
       </c>
       <c r="E90" t="n">
-        <v>2.502222246319667</v>
+        <v>1.958419102158856</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3611942169528323</v>
+        <v>-0.292557310869074</v>
       </c>
       <c r="G90" t="n">
-        <v>0.009846390753456677</v>
+        <v>0.0220355948288092</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1639126021779053</v>
       </c>
       <c r="E91" t="n">
-        <v>2.543867644231041</v>
+        <v>2.045903084920748</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5336311597295652</v>
+        <v>-0.126103214772405</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0244404677658362</v>
+        <v>0.02429588628699699</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1087806593702906</v>
       </c>
       <c r="E92" t="n">
-        <v>2.660648844897703</v>
+        <v>2.165161791684338</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6849967085294459</v>
+        <v>0.03199283979015736</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05129480799434724</v>
+        <v>0.0400911681692494</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03813931651481742</v>
       </c>
       <c r="E93" t="n">
-        <v>2.700606894311042</v>
+        <v>2.196686246645748</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7877675649974104</v>
+        <v>0.1860578313830687</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05769162170331323</v>
+        <v>0.02149098421283917</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04449553095004753</v>
       </c>
       <c r="E94" t="n">
-        <v>2.647562449923209</v>
+        <v>2.169983012252882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8250466338662958</v>
+        <v>0.2908056558673868</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09317316073567333</v>
+        <v>0.003899746513182679</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1341142859831682</v>
       </c>
       <c r="E95" t="n">
-        <v>2.515958711191258</v>
+        <v>2.087732643069314</v>
       </c>
       <c r="F95" t="n">
-        <v>0.959323057066215</v>
+        <v>0.418167413067432</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06760794216750757</v>
+        <v>-0.008072242923430352</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2233991870725232</v>
       </c>
       <c r="E96" t="n">
-        <v>2.425610013628599</v>
+        <v>1.99788605760635</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9477854969070809</v>
+        <v>0.4688224964291307</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06026829100488246</v>
+        <v>-0.01289503751109566</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3071059785338209</v>
       </c>
       <c r="E97" t="n">
-        <v>2.230097950533597</v>
+        <v>1.828702612353345</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9284927445372984</v>
+        <v>0.4980174030910159</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1353080785937714</v>
+        <v>-0.06073892272215137</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3812846712046254</v>
       </c>
       <c r="E98" t="n">
-        <v>2.095043961887756</v>
+        <v>1.713323862723762</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8667361043130659</v>
+        <v>0.485360715336637</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1723038240208228</v>
+        <v>-0.08951514029777054</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4441800708441184</v>
       </c>
       <c r="E99" t="n">
-        <v>1.940950637950661</v>
+        <v>1.556241476475317</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8545500482759559</v>
+        <v>0.4888125392696495</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1991125176948161</v>
+        <v>-0.1286232193856074</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4924323965137117</v>
       </c>
       <c r="E100" t="n">
-        <v>1.720972021634162</v>
+        <v>1.374295884186807</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7773680206629767</v>
+        <v>0.452559730867852</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2745426620257877</v>
+        <v>-0.1634011718707461</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5237758028439202</v>
       </c>
       <c r="E101" t="n">
-        <v>1.583653019472769</v>
+        <v>1.262771907385289</v>
       </c>
       <c r="F101" t="n">
-        <v>0.69595345563282</v>
+        <v>0.4126158476266045</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3379410041935368</v>
+        <v>-0.1989346535341092</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5332087205618257</v>
       </c>
       <c r="E102" t="n">
-        <v>1.426430545522528</v>
+        <v>1.110047980083726</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6007111326220367</v>
+        <v>0.3718314381745824</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3147100559822599</v>
+        <v>-0.2176056683509779</v>
       </c>
     </row>
   </sheetData>
